--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_016_6nov2023.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_016_6nov2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9B3D33FF-63A3-41B2-A6D0-3BBC442A91F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F89F7AF5-721C-4A66-BEF5-3E07327B6604}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9B3D33FF-63A3-41B2-A6D0-3BBC442A91F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC642A66-C978-4AF5-BAC5-BF4DFE98D755}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{273ABDC9-92F2-4638-B3A0-23456F915B89}"/>
   </bookViews>
@@ -422,9 +422,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,6 +439,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,7 +762,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,11 +1526,11 @@
       <c r="D33" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
